--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3000.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3000.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180623197319018</v>
+        <v>1.637506604194641</v>
       </c>
       <c r="B1">
-        <v>2.43748971631216</v>
+        <v>1.713898062705994</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.882205247879028</v>
       </c>
       <c r="D1">
-        <v>2.301655181200735</v>
+        <v>2.718746900558472</v>
       </c>
       <c r="E1">
-        <v>1.201498795760436</v>
+        <v>4.906844615936279</v>
       </c>
     </row>
   </sheetData>
